--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1854345.462901147</v>
+        <v>1929875.132565952</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -659,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>42.73289004951806</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>173.02414134234</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,16 +819,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>49.28375166179435</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>139.4384002192466</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>372.2875326546728</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -953,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>73.03689209589197</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>146.6850513083904</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>3.818876620805431</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>105.5264018659279</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1193,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>167.3529015912241</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>46.25307783771803</v>
       </c>
       <c r="C13" t="n">
-        <v>102.3715833422281</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1546,7 +1548,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1581,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,10 +1666,10 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,13 +1770,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -1783,7 +1785,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037968</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>146.1854691670878</v>
+        <v>98.2094890115804</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1850,10 +1852,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>25.27740097140332</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>195.5620773244868</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2059,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2239,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>80.3763021841268</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -2293,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>58.40168825977442</v>
       </c>
       <c r="S25" t="n">
-        <v>88.99177052521325</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2767,19 +2769,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>271.7818641996879</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>209.4552226741785</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505273959</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>9.1524075981136</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -3004,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>247.5766173605825</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>102.0005969012859</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -3205,7 +3207,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>175.0994223808848</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>134.7893848774609</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>141.7792119070184</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>164.3675597136119</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3709,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>122.65197883716</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3898,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>215.7053919670787</v>
       </c>
       <c r="U43" t="n">
-        <v>107.1697933608005</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
         <v>305.2872491113177</v>
@@ -4150,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4198,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>192.3228038217186</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1359.546482223454</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C2" t="n">
-        <v>990.5839652830421</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D2" t="n">
-        <v>632.3182666762915</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2653.984555614669</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>2322.921668271098</v>
       </c>
       <c r="W2" t="n">
-        <v>2311.057514205145</v>
+        <v>1970.153013000984</v>
       </c>
       <c r="X2" t="n">
-        <v>2136.285654263387</v>
+        <v>1596.687254739904</v>
       </c>
       <c r="Y2" t="n">
-        <v>1746.146322287575</v>
+        <v>1596.687254739904</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4419,10 +4421,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,25 +4433,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296.2710210862863</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C4" t="n">
-        <v>246.4894537511405</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D4" t="n">
-        <v>246.4894537511405</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E4" t="n">
-        <v>246.4894537511405</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>477.919485916526</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1504.400259589023</v>
+        <v>854.9003034538789</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>854.9003034538789</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>854.9003034538789</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W5" t="n">
-        <v>1894.539591564834</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X5" t="n">
-        <v>1894.539591564834</v>
+        <v>1245.039635429691</v>
       </c>
       <c r="Y5" t="n">
-        <v>1504.400259589023</v>
+        <v>854.9003034538789</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>397.6292392479589</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C7" t="n">
-        <v>397.6292392479589</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>247.5125998356232</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>397.6292392479589</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>397.6292392479589</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>397.6292392479589</v>
+        <v>579.9622657131106</v>
       </c>
       <c r="X7" t="n">
-        <v>397.6292392479589</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="Y7" t="n">
-        <v>397.6292392479589</v>
+        <v>351.9727148150933</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1299.526533804879</v>
+        <v>1040.216121848822</v>
       </c>
       <c r="C8" t="n">
-        <v>1299.526533804879</v>
+        <v>1040.216121848822</v>
       </c>
       <c r="D8" t="n">
-        <v>941.2608351981287</v>
+        <v>1040.216121848822</v>
       </c>
       <c r="E8" t="n">
-        <v>555.4725825998845</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2535.528076431617</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2316.893409403679</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2063.131624041771</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2063.131624041771</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>2063.131624041771</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X8" t="n">
-        <v>1689.665865780691</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="Y8" t="n">
-        <v>1299.526533804879</v>
+        <v>1426.815961912944</v>
       </c>
     </row>
     <row r="9">
@@ -4887,10 +4889,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>529.6687301194257</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>529.6687301194257</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>529.6687301194257</v>
       </c>
       <c r="V10" t="n">
-        <v>343.360151857325</v>
+        <v>529.6687301194257</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>529.6687301194257</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>529.6687301194257</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>529.6687301194257</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5057,13 +5059,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5075,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277031</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.542980734167</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126628</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918009</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>964.1357418247856</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>860.7301020851612</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D13" t="n">
-        <v>710.6134626728254</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904323</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123425</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5227,22 +5229,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247856</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>964.1357418247856</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V13" t="n">
-        <v>964.1357418247856</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W13" t="n">
-        <v>964.1357418247856</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X13" t="n">
-        <v>964.1357418247856</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="Y13" t="n">
-        <v>964.1357418247856</v>
+        <v>1187.92115703528</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5275,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,25 +5296,25 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
@@ -5352,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277031</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.542980734167</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653858</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918009</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136706</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>527.3450129705744</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="C16" t="n">
-        <v>527.3450129705744</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D16" t="n">
-        <v>527.3450129705744</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E16" t="n">
-        <v>527.3450129705744</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119724</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035276</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247817</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383399</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V16" t="n">
-        <v>527.3450129705744</v>
+        <v>1088.719652983179</v>
       </c>
       <c r="W16" t="n">
-        <v>527.3450129705744</v>
+        <v>1088.719652983179</v>
       </c>
       <c r="X16" t="n">
-        <v>527.3450129705744</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="Y16" t="n">
-        <v>527.3450129705744</v>
+        <v>860.7301020851612</v>
       </c>
     </row>
     <row r="17">
@@ -5492,13 +5494,13 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
         <v>904.3190116155888</v>
@@ -5510,13 +5512,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,31 +5533,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5589,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277031</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.542980734167</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653858</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918009</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>736.1461909267682</v>
+        <v>822.9089152986054</v>
       </c>
       <c r="C19" t="n">
-        <v>736.1461909267682</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="D19" t="n">
-        <v>736.1461909267682</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E19" t="n">
-        <v>588.2330973443751</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F19" t="n">
-        <v>441.3431498464647</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G19" t="n">
-        <v>273.1678281662853</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>122.7498197142286</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1301.378818714986</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247856</v>
+        <v>1077.593403504492</v>
       </c>
       <c r="U19" t="n">
-        <v>964.1357418247856</v>
+        <v>1077.593403504492</v>
       </c>
       <c r="V19" t="n">
-        <v>964.1357418247856</v>
+        <v>822.9089152986054</v>
       </c>
       <c r="W19" t="n">
-        <v>964.1357418247856</v>
+        <v>822.9089152986054</v>
       </c>
       <c r="X19" t="n">
-        <v>736.1461909267682</v>
+        <v>822.9089152986054</v>
       </c>
       <c r="Y19" t="n">
-        <v>736.1461909267682</v>
+        <v>822.9089152986054</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5731,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5817,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1141.200876391121</v>
+        <v>289.9398668627089</v>
       </c>
       <c r="C22" t="n">
-        <v>972.2646934632137</v>
+        <v>289.9398668627089</v>
       </c>
       <c r="D22" t="n">
-        <v>822.1480540508779</v>
+        <v>289.9398668627089</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684848</v>
+        <v>289.9398668627089</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>289.9398668627089</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>289.9398668627089</v>
       </c>
       <c r="H22" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5929,31 +5931,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771457</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771457</v>
       </c>
       <c r="W22" t="n">
-        <v>1498.916270557902</v>
+        <v>920.3704617344961</v>
       </c>
       <c r="X22" t="n">
-        <v>1498.916270557902</v>
+        <v>692.3809108364787</v>
       </c>
       <c r="Y22" t="n">
-        <v>1322.84934122136</v>
+        <v>471.5883316929486</v>
       </c>
     </row>
     <row r="23">
@@ -6066,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6169,16 +6171,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1439.9246662551</v>
       </c>
       <c r="S25" t="n">
-        <v>1409.025593259707</v>
+        <v>1439.9246662551</v>
       </c>
       <c r="T25" t="n">
-        <v>1185.240178049213</v>
+        <v>1439.9246662551</v>
       </c>
       <c r="U25" t="n">
-        <v>1185.240178049213</v>
+        <v>1439.9246662551</v>
       </c>
       <c r="V25" t="n">
         <v>1185.240178049213</v>
@@ -6203,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,13 +6214,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6227,25 +6229,25 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6257,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4326.074044281177</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>4036.945405494735</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V28" t="n">
-        <v>3782.260917288848</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W28" t="n">
-        <v>3570.689985294728</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>3570.689985294728</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6440,28 +6442,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514082</v>
@@ -6479,31 +6481,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>981.5095496229244</v>
+        <v>846.3978353108171</v>
       </c>
       <c r="C31" t="n">
-        <v>972.2646934632137</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="D31" t="n">
-        <v>822.1480540508779</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E31" t="n">
-        <v>674.2349604684848</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F31" t="n">
         <v>527.3450129705744</v>
@@ -6652,19 +6654,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>1248.838879284587</v>
       </c>
       <c r="V31" t="n">
-        <v>1498.916270557902</v>
+        <v>1248.838879284587</v>
       </c>
       <c r="W31" t="n">
-        <v>1209.499100520942</v>
+        <v>1248.838879284587</v>
       </c>
       <c r="X31" t="n">
-        <v>981.5095496229244</v>
+        <v>1248.838879284587</v>
       </c>
       <c r="Y31" t="n">
-        <v>981.5095496229244</v>
+        <v>1028.046300141057</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6725,25 +6727,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6786,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1141.200876391121</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C34" t="n">
-        <v>972.2646934632137</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D34" t="n">
-        <v>822.1480540508779</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E34" t="n">
-        <v>674.2349604684848</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6880,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1210.973063704693</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>987.1876484941987</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>987.1876484941987</v>
       </c>
       <c r="V34" t="n">
-        <v>1244.231782352015</v>
+        <v>987.1876484941987</v>
       </c>
       <c r="W34" t="n">
-        <v>1244.231782352015</v>
+        <v>987.1876484941987</v>
       </c>
       <c r="X34" t="n">
-        <v>1244.231782352015</v>
+        <v>987.1876484941987</v>
       </c>
       <c r="Y34" t="n">
-        <v>1244.231782352015</v>
+        <v>766.3950693506686</v>
       </c>
     </row>
     <row r="35">
@@ -6935,16 +6937,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
         <v>3183.709822619127</v>
@@ -6953,7 +6955,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6971,7 +6973,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
@@ -7014,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>531.3977182706318</v>
+        <v>689.0745126050291</v>
       </c>
       <c r="C37" t="n">
-        <v>531.3977182706318</v>
+        <v>520.1383296771222</v>
       </c>
       <c r="D37" t="n">
-        <v>381.281078858296</v>
+        <v>520.1383296771222</v>
       </c>
       <c r="E37" t="n">
-        <v>233.3679852759029</v>
+        <v>520.1383296771222</v>
       </c>
       <c r="F37" t="n">
-        <v>233.3679852759029</v>
+        <v>520.1383296771222</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>351.9630079969428</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W37" t="n">
-        <v>531.3977182706318</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="X37" t="n">
-        <v>531.3977182706318</v>
+        <v>870.7229774352688</v>
       </c>
       <c r="Y37" t="n">
-        <v>531.3977182706318</v>
+        <v>870.7229774352688</v>
       </c>
     </row>
     <row r="38">
@@ -7166,13 +7168,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
@@ -7184,19 +7186,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7248,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>263.2449295548433</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7357,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1375.025382843599</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1151.239967633105</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>862.1113288466635</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>607.4268406407766</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W40" t="n">
-        <v>318.0096706038159</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>444.8933943850831</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,67 +7396,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>4075.197584164471</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>4555.115143601278</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S42" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>674.2349604684849</v>
+        <v>3628.091576844583</v>
       </c>
       <c r="C43" t="n">
-        <v>674.2349604684849</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D43" t="n">
-        <v>674.2349604684849</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E43" t="n">
-        <v>674.2349604684849</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705745</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247858</v>
+        <v>4642.970338704112</v>
       </c>
       <c r="U43" t="n">
-        <v>855.8834252987247</v>
+        <v>4353.84169991767</v>
       </c>
       <c r="V43" t="n">
-        <v>855.8834252987247</v>
+        <v>4099.157211711783</v>
       </c>
       <c r="W43" t="n">
-        <v>855.8834252987247</v>
+        <v>3809.740041674822</v>
       </c>
       <c r="X43" t="n">
-        <v>855.8834252987247</v>
+        <v>3809.740041674822</v>
       </c>
       <c r="Y43" t="n">
-        <v>855.8834252987247</v>
+        <v>3809.740041674822</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
         <v>1701.09316900344</v>
@@ -7634,19 +7636,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514082</v>
@@ -7679,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7834,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V46" t="n">
-        <v>731.3177283550796</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W46" t="n">
-        <v>441.900558318119</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>247.6350999123426</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8067,13 +8069,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,13 +8537,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8772,16 +8774,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165131</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9009,16 +9011,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229594</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9027,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229594</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9714,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10832,7 +10834,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119856</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208058</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>133.5789023442193</v>
       </c>
       <c r="C13" t="n">
-        <v>64.87523775639974</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23656,13 +23658,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,19 +23706,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>105.9521741567402</v>
+        <v>153.9281543122476</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23890,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>85.14184449286867</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>2.358732659116441</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,13 +23949,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24127,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>68.53752618340933</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24181,19 +24183,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>51.56266414401838</v>
       </c>
       <c r="S25" t="n">
-        <v>108.92903945839</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>14.45548819888944</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>77.06777566241246</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>158.0944135005142</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24892,19 +24894,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>38.66073503799481</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.83138328065138</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>22.82138760271843</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>31.7041835859167</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>7.134616460517748</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>2.879261385015923</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25597,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>75.26883114644322</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25795,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>5.842169091310524</v>
       </c>
       <c r="U43" t="n">
-        <v>179.0675590377768</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -26038,7 +26040,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26074,7 +26076,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>33.38685156731853</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>886944.3223752767</v>
+        <v>886944.3223752768</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>886944.3223752769</v>
+        <v>886944.3223752767</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>886944.3223752768</v>
+        <v>886944.3223752767</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>886944.3223752768</v>
+        <v>886944.3223752769</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>886944.3223752768</v>
+        <v>886944.3223752767</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>886944.3223752768</v>
+        <v>886944.3223752767</v>
       </c>
     </row>
     <row r="16">
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651773</v>
       </c>
       <c r="E2" t="n">
-        <v>488786.3246721357</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="F2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="G2" t="n">
         <v>488786.3246721358</v>
@@ -26335,10 +26337,10 @@
         <v>488786.3246721359</v>
       </c>
       <c r="J2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="K2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="L2" t="n">
         <v>488786.3246721359</v>
@@ -26347,10 +26349,10 @@
         <v>488786.3246721359</v>
       </c>
       <c r="N2" t="n">
+        <v>488786.3246721358</v>
+      </c>
+      <c r="O2" t="n">
         <v>488786.3246721359</v>
-      </c>
-      <c r="O2" t="n">
-        <v>488786.324672136</v>
       </c>
       <c r="P2" t="n">
         <v>488786.3246721358</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="H4" t="n">
         <v>7916.731656007485</v>
-      </c>
-      <c r="F4" t="n">
-        <v>7916.731656007486</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7916.731656007485</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="K4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="M4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="P4" t="n">
         <v>7916.731656007484</v>
@@ -26476,16 +26478,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871661</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26497,16 +26499,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26519,34 +26521,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-307592.8998286977</v>
+        <v>-307592.8998286979</v>
       </c>
       <c r="C6" t="n">
-        <v>282374.9793858469</v>
+        <v>282374.9793858465</v>
       </c>
       <c r="D6" t="n">
-        <v>282374.9793858469</v>
+        <v>282374.979385847</v>
       </c>
       <c r="E6" t="n">
-        <v>-136277.7694094843</v>
+        <v>-136277.7694094845</v>
       </c>
       <c r="F6" t="n">
-        <v>388882.2670674117</v>
+        <v>388882.2670674118</v>
       </c>
       <c r="G6" t="n">
         <v>388882.2670674117</v>
       </c>
       <c r="H6" t="n">
-        <v>388882.2670674118</v>
+        <v>388882.2670674119</v>
       </c>
       <c r="I6" t="n">
-        <v>388882.2670674118</v>
+        <v>388882.2670674119</v>
       </c>
       <c r="J6" t="n">
-        <v>212459.047874819</v>
+        <v>212459.0478748189</v>
       </c>
       <c r="K6" t="n">
-        <v>388882.267067412</v>
+        <v>388882.2670674117</v>
       </c>
       <c r="L6" t="n">
         <v>388882.2670674118</v>
@@ -26555,7 +26557,7 @@
         <v>254081.2518335747</v>
       </c>
       <c r="N6" t="n">
-        <v>388882.2670674118</v>
+        <v>388882.2670674117</v>
       </c>
       <c r="O6" t="n">
         <v>388882.2670674119</v>
@@ -26744,13 +26746,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26765,10 +26767,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27433,19 +27435,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>208.4912774587712</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>196.706959336129</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,16 +27539,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>117.9630694368335</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>225.8344915517609</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>9.642837417589021</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27673,13 +27675,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,19 +27827,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>213.2449821460858</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>139.8379470282006</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>378.1114934514563</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>68.88931094304365</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28026,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28055,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>44.79263735879479</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28804,7 +28806,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29001,7 +29003,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>-3.770613451100265e-12</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -31276,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,46 +31992,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,43 +32071,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,43 +32153,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,46 +32229,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,43 +32308,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,43 +32390,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34787,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34948,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879391</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145259</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.363702241108</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315245</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507405</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879391</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734255</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415662</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.363702241108</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315245</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507405</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879391</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734255</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415662</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315245</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507405</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36048,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36060,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
@@ -36215,7 +36217,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187098</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37552,7 +37554,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
         <v>713.1546070951472</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37874,13 +37876,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38023,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1929875.132565952</v>
+        <v>1922858.117674242</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>195.9544420980503</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>42.73289004951806</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -800,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609193</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.31590541686235</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>44.85034555736554</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>372.2875326546728</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>60.46179076613092</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>146.6850513083904</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>3.818876620805431</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>6.283679164003906</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>167.3529015912241</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>155.2114886365811</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.25307783771803</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>191.3073604098896</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1666,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>98.2094890115804</v>
+        <v>230.6215683412727</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>195.5620773244868</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>196.9658507212241</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,10 +2083,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>80.3763021841268</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>169.8277167599791</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>58.40168825977442</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002232</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>271.7818641996879</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.5229983365859</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2809,10 +2809,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -3006,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>247.5766173605825</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>230.5833406478055</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>175.0994223808848</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750042</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3322,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>141.7792119070184</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>164.3675597136119</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>215.7053919670787</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>5.562624396425368</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>15.74955790720865</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1210.087414675782</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="C2" t="n">
-        <v>1210.087414675782</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2653.984555614669</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2322.921668271098</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1970.153013000984</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1596.687254739904</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y2" t="n">
-        <v>1596.687254739904</v>
+        <v>1620.08070321196</v>
       </c>
     </row>
     <row r="3">
@@ -4409,22 +4409,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4433,19 +4433,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761945</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="C4" t="n">
-        <v>377.5443364482876</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="D4" t="n">
-        <v>227.4276970359519</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="E4" t="n">
-        <v>79.51460345355875</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.24636117123873</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4518,22 +4518,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>246.1363086691491</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>854.9003034538789</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C5" t="n">
-        <v>854.9003034538789</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D5" t="n">
-        <v>854.9003034538789</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
         <v>67.86638588177355</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V5" t="n">
-        <v>1971.274048960885</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W5" t="n">
-        <v>1618.50539369077</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X5" t="n">
-        <v>1245.039635429691</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y5" t="n">
-        <v>854.9003034538789</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4649,22 +4649,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4764,13 +4764,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>579.9622657131106</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X7" t="n">
-        <v>351.9727148150933</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y7" t="n">
-        <v>351.9727148150933</v>
+        <v>210.7222632714563</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1040.216121848822</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>1040.216121848822</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>1040.216121848822</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="V8" t="n">
-        <v>2169.72394915887</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="W8" t="n">
-        <v>1816.955293888756</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X8" t="n">
-        <v>1816.955293888756</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y8" t="n">
-        <v>1426.815961912944</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4883,16 +4883,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>529.6687301194257</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>529.6687301194257</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>529.6687301194257</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>529.6687301194257</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>529.6687301194257</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X10" t="n">
-        <v>529.6687301194257</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="Y10" t="n">
-        <v>529.6687301194257</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5059,16 +5059,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>534.542980734167</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.043068977054</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N12" t="n">
-        <v>1999.905696641086</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>564.4843764226425</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W13" t="n">
-        <v>1187.92115703528</v>
+        <v>985.7136853104473</v>
       </c>
       <c r="X13" t="n">
-        <v>1187.92115703528</v>
+        <v>757.72413441243</v>
       </c>
       <c r="Y13" t="n">
-        <v>1187.92115703528</v>
+        <v>564.4843764226425</v>
       </c>
     </row>
     <row r="14">
@@ -5275,16 +5275,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5296,13 +5296,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L15" t="n">
-        <v>563.7235867775518</v>
+        <v>709.4934589365146</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170013</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>860.7301020851612</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C16" t="n">
-        <v>860.7301020851612</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D16" t="n">
-        <v>710.6134626728254</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E16" t="n">
-        <v>562.7003690904323</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5463,25 +5463,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1164.055751909233</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.92115703528</v>
+        <v>1164.055751909233</v>
       </c>
       <c r="V16" t="n">
-        <v>1088.719652983179</v>
+        <v>931.1046727766346</v>
       </c>
       <c r="W16" t="n">
-        <v>1088.719652983179</v>
+        <v>931.1046727766346</v>
       </c>
       <c r="X16" t="n">
-        <v>860.7301020851612</v>
+        <v>931.1046727766346</v>
       </c>
       <c r="Y16" t="n">
-        <v>860.7301020851612</v>
+        <v>710.3120936331045</v>
       </c>
     </row>
     <row r="17">
@@ -5503,31 +5503,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5597,19 +5597,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>822.9089152986054</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C19" t="n">
-        <v>653.9727323706985</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D19" t="n">
-        <v>653.9727323706985</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E19" t="n">
-        <v>506.0596387883054</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1301.378818714986</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1077.593403504492</v>
+        <v>1100.040855704541</v>
       </c>
       <c r="U19" t="n">
-        <v>1077.593403504492</v>
+        <v>1100.040855704541</v>
       </c>
       <c r="V19" t="n">
-        <v>822.9089152986054</v>
+        <v>1100.040855704541</v>
       </c>
       <c r="W19" t="n">
-        <v>822.9089152986054</v>
+        <v>1100.040855704541</v>
       </c>
       <c r="X19" t="n">
-        <v>822.9089152986054</v>
+        <v>1100.040855704541</v>
       </c>
       <c r="Y19" t="n">
-        <v>822.9089152986054</v>
+        <v>879.2482765610114</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5749,52 +5749,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5819,25 +5819,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619858</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M21" t="n">
         <v>1198.760773441947</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>289.9398668627089</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C22" t="n">
-        <v>289.9398668627089</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>289.9398668627089</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>289.9398668627089</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>289.9398668627089</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>289.9398668627089</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5931,31 +5931,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771457</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>1209.787631771457</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W22" t="n">
-        <v>920.3704617344961</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X22" t="n">
-        <v>692.3809108364787</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y22" t="n">
-        <v>471.5883316929486</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="23">
@@ -5968,16 +5968,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805469</v>
@@ -5989,25 +5989,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1439.9246662551</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1439.9246662551</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1439.9246662551</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1439.9246662551</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1185.240178049213</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>895.8230080122524</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>667.8334571142351</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395484</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598081</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387587</v>
       </c>
       <c r="U28" t="n">
-        <v>800.6837097077201</v>
+        <v>869.3083006011456</v>
       </c>
       <c r="V28" t="n">
-        <v>545.9992215018333</v>
+        <v>614.6238123952587</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>846.3978353108171</v>
+        <v>527.8045051785811</v>
       </c>
       <c r="C31" t="n">
-        <v>677.4616523829102</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D31" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E31" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U31" t="n">
-        <v>1248.838879284587</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V31" t="n">
-        <v>1248.838879284587</v>
+        <v>1266.003805257089</v>
       </c>
       <c r="W31" t="n">
-        <v>1248.838879284587</v>
+        <v>976.5866352201285</v>
       </c>
       <c r="X31" t="n">
-        <v>1248.838879284587</v>
+        <v>748.5970843221112</v>
       </c>
       <c r="Y31" t="n">
-        <v>1028.046300141057</v>
+        <v>527.8045051785811</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6715,22 +6715,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6767,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110083</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>644.675512255521</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>584.7466045204288</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1210.973063704693</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>987.1876484941987</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>987.1876484941987</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>987.1876484941987</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>987.1876484941987</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>987.1876484941987</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>766.3950693506686</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6949,22 +6949,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -6973,7 +6973,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>2032.925401907738</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2312.465467126435</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2517.487947908644</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>689.0745126050291</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>520.1383296771222</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>520.1383296771222</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>520.1383296771222</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>520.1383296771222</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>351.9630079969428</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T37" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1098.712528333286</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>1098.712528333286</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>1098.712528333286</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>870.7229774352688</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>870.7229774352688</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7153,16 +7153,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7171,16 +7171,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7198,22 +7198,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>263.2449295548433</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>444.8933943850831</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
         <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>2911.709630095316</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L42" t="n">
-        <v>3158.47475800178</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M42" t="n">
-        <v>3465.794891281741</v>
+        <v>841.8631140141292</v>
       </c>
       <c r="N42" t="n">
-        <v>3795.657518945774</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O42" t="n">
-        <v>4075.197584164471</v>
+        <v>2315.73845358094</v>
       </c>
       <c r="P42" t="n">
-        <v>4555.115143601278</v>
+        <v>2520.760934363149</v>
       </c>
       <c r="Q42" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3628.091576844583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>4642.970338704112</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U43" t="n">
-        <v>4353.84169991767</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="V43" t="n">
-        <v>4099.157211711783</v>
+        <v>620.2426249169056</v>
       </c>
       <c r="W43" t="n">
-        <v>3809.740041674822</v>
+        <v>330.825454879945</v>
       </c>
       <c r="X43" t="n">
-        <v>3809.740041674822</v>
+        <v>102.8359039819276</v>
       </c>
       <c r="Y43" t="n">
-        <v>3809.740041674822</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7660,7 +7660,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7727,22 +7727,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1483.007626207187</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1483.007626207187</v>
       </c>
       <c r="T46" t="n">
-        <v>1379.229518531123</v>
+        <v>1483.007626207187</v>
       </c>
       <c r="U46" t="n">
-        <v>1090.100879744681</v>
+        <v>1483.007626207187</v>
       </c>
       <c r="V46" t="n">
-        <v>835.416391538794</v>
+        <v>1483.007626207187</v>
       </c>
       <c r="W46" t="n">
-        <v>545.9992215018333</v>
+        <v>1193.590456170226</v>
       </c>
       <c r="X46" t="n">
-        <v>318.0096706038159</v>
+        <v>965.6009052722087</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>744.8083261286786</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,13 +8069,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8297,7 +8297,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8774,16 +8774,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229594</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9011,10 +9011,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>29.47535963978231</v>
+        <v>176.717654749846</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>288.4091825776742</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>180.0237016735865</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814623</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10676,19 +10676,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>19.14409596997008</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928316</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10907,25 +10907,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>127.6461250100645</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,19 +11150,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208058</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>15.83804904622774</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>133.5789023442193</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23478,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>27.27729294220524</v>
       </c>
     </row>
     <row r="14">
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23703,25 +23703,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>153.9281543122476</v>
+        <v>21.51607498255532</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,16 +23940,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>2.358732659116441</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>24.58171033716516</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,10 +24144,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>68.53752618340933</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>48.75693659211572</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>51.56266414401838</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338004</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>14.45548819888944</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24894,16 +24894,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>38.66073503799481</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>21.5543026760225</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>22.82138760271843</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>7.134616460517748</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>2.879261385015923</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>5.842169091310524</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>213.0220289556694</v>
       </c>
     </row>
     <row r="44">
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>94.21479449658415</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0576765518774</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>886944.3223752768</v>
+        <v>886944.3223752769</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>886944.3223752767</v>
+        <v>886944.3223752769</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>886944.3223752767</v>
+        <v>886944.3223752768</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>886944.3223752769</v>
+        <v>886944.3223752768</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>886944.3223752768</v>
+        <v>886944.3223752769</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>886944.3223752768</v>
+        <v>886944.3223752769</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>886944.3223752767</v>
+        <v>886944.3223752768</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>886944.3223752767</v>
+        <v>886944.3223752769</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>886944.3223752768</v>
+        <v>886944.3223752769</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
         <v>513151.1061651768</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651773</v>
+        <v>513151.1061651774</v>
       </c>
       <c r="E2" t="n">
         <v>488786.3246721358</v>
       </c>
       <c r="F2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="G2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.324672136</v>
       </c>
       <c r="H2" t="n">
         <v>488786.3246721359</v>
@@ -26337,10 +26337,10 @@
         <v>488786.3246721359</v>
       </c>
       <c r="J2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721361</v>
       </c>
       <c r="K2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721361</v>
       </c>
       <c r="L2" t="n">
         <v>488786.3246721359</v>
@@ -26349,13 +26349,13 @@
         <v>488786.3246721359</v>
       </c>
       <c r="N2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="O2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="P2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.651701151989983e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925932</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="F4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="G4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="G4" t="n">
-        <v>7916.731656007484</v>
-      </c>
       <c r="H4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="L4" t="n">
+        <v>7916.731656007481</v>
+      </c>
+      <c r="M4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="M4" t="n">
-        <v>7916.731656007484</v>
-      </c>
       <c r="N4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007481</v>
       </c>
       <c r="O4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="N5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="N5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-307592.8998286979</v>
+        <v>-307592.8998286977</v>
       </c>
       <c r="C6" t="n">
         <v>282374.9793858465</v>
       </c>
       <c r="D6" t="n">
-        <v>282374.979385847</v>
+        <v>282374.9793858471</v>
       </c>
       <c r="E6" t="n">
-        <v>-136277.7694094845</v>
+        <v>-137252.3606692057</v>
       </c>
       <c r="F6" t="n">
-        <v>388882.2670674118</v>
+        <v>387907.6758076901</v>
       </c>
       <c r="G6" t="n">
-        <v>388882.2670674117</v>
+        <v>387907.67580769</v>
       </c>
       <c r="H6" t="n">
-        <v>388882.2670674119</v>
+        <v>387907.6758076901</v>
       </c>
       <c r="I6" t="n">
-        <v>388882.2670674119</v>
+        <v>387907.6758076901</v>
       </c>
       <c r="J6" t="n">
-        <v>212459.0478748189</v>
+        <v>211484.4566150971</v>
       </c>
       <c r="K6" t="n">
-        <v>388882.2670674117</v>
+        <v>387907.6758076903</v>
       </c>
       <c r="L6" t="n">
-        <v>388882.2670674118</v>
+        <v>387907.6758076902</v>
       </c>
       <c r="M6" t="n">
-        <v>254081.2518335747</v>
+        <v>253106.660573853</v>
       </c>
       <c r="N6" t="n">
-        <v>388882.2670674117</v>
+        <v>387907.6758076901</v>
       </c>
       <c r="O6" t="n">
-        <v>388882.2670674119</v>
+        <v>387907.6758076901</v>
       </c>
       <c r="P6" t="n">
-        <v>388882.2670674117</v>
+        <v>387907.6758076901</v>
       </c>
     </row>
   </sheetData>
@@ -26743,43 +26743,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="N3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="O3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="P3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="P3" t="n">
-        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26813,10 +26813,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>158.7285995226327</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>208.4912774587712</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>120.1051426060689</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>122.4594567016854</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27590,13 +27590,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9.642837417589021</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27666,13 +27666,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>190.7623767421584</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>24.62049154535643</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>139.8379470282006</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>378.1114934514563</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>48.19472341080779</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28028,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>44.79263735879479</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>63.3731647155137</v>
       </c>
     </row>
     <row r="11">
@@ -28806,7 +28806,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29003,7 +29003,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>-3.770613451100265e-12</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -29295,7 +29295,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29495,7 +29495,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>5.090328158985358e-12</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,46 +31992,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,43 +32071,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,43 +32153,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N16" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734255</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O12" t="n">
-        <v>334.8610358541607</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L15" t="n">
-        <v>278.7330645958066</v>
+        <v>425.9753597058702</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714617</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187098</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336986</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>429.2814066296109</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330529</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37165,7 +37165,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>107.1571287550442</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221109</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>460.8406984080775</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523304</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>103.8510818313019</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1922858.117674242</v>
+        <v>1927797.380523273</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>195.9544420980503</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>331.7615209354891</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -800,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609193</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -825,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>44.85034555736554</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>73.31370764131945</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>133.9963273159767</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>60.46179076613092</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>123.4514883688808</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>237.2521854042137</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>6.283679164003906</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>155.2114886365811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385011</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>161.408814047629</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.3073604098896</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1782,10 +1782,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>230.6215683412727</v>
+        <v>140.5678108961693</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634821</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2019,7 +2019,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>147.4019814764079</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>196.9658507212241</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113193</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>169.8277167599791</v>
+        <v>217.4237851495056</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>29.18937547121152</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002232</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5229983365859</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2803,16 +2803,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.876045741713</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>217.4237851495057</v>
       </c>
       <c r="V31" t="n">
-        <v>230.5833406478055</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>139.1537278750042</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>155.8385935972358</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>95.02525064967696</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.526976800218</v>
+        <v>25.82923535834143</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3903,19 +3903,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.831271384924</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3957,16 +3957,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>5.562624396425368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>15.74955790720865</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>200.5749791798103</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1620.08070321196</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>1620.08070321196</v>
+        <v>1293.521057189058</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>935.2553585823075</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>549.4671059840632</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>542.5216052348597</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4333,7 +4333,7 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4366,16 +4366,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1620.08070321196</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1620.08070321196</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4421,31 +4421,31 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246.1363086691491</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>246.1363086691491</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>246.1363086691491</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>246.1363086691491</v>
+        <v>580.2158906240411</v>
       </c>
       <c r="F4" t="n">
-        <v>99.24636117123873</v>
+        <v>433.3259431261307</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>264.3261428644631</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4518,22 +4518,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>246.1363086691491</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>246.1363086691491</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>246.1363086691491</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>246.1363086691491</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>802.0401021781393</v>
+        <v>1857.168914859137</v>
       </c>
       <c r="C5" t="n">
-        <v>433.0775852377275</v>
+        <v>1857.168914859137</v>
       </c>
       <c r="D5" t="n">
-        <v>74.81188663097703</v>
+        <v>1498.903216252386</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2636.076575092838</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2305.013687749267</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>1952.245032479153</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>1578.779274218073</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y5" t="n">
-        <v>1188.639942242261</v>
+        <v>1857.168914859137</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4649,13 +4649,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4670,7 +4670,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>603.4305111065548</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694736</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="X7" t="n">
-        <v>210.7222632714563</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y7" t="n">
-        <v>210.7222632714563</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1187.828354776384</v>
+        <v>1626.717708340416</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>1257.755191400004</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>1257.755191400004</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>871.9669388017599</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>460.9810340121523</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>447.0576299507432</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2690.801940347511</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2690.801940347511</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2690.801940347511</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2690.801940347511</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2690.801940347511</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2338.033285077397</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1964.567526816317</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y8" t="n">
-        <v>1574.428194840505</v>
+        <v>2013.317548404538</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>210.7222632714565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5038,13 +5038,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5053,22 +5053,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277031</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L12" t="n">
-        <v>534.542980734167</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653858</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918009</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>564.4843764226425</v>
+        <v>967.1285778917505</v>
       </c>
       <c r="C13" t="n">
-        <v>395.5481934947356</v>
+        <v>967.1285778917505</v>
       </c>
       <c r="D13" t="n">
-        <v>395.5481934947356</v>
+        <v>817.0119384794148</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123425</v>
+        <v>669.0988448970216</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123425</v>
+        <v>522.2088973991113</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123425</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="V13" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="W13" t="n">
-        <v>985.7136853104473</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="X13" t="n">
-        <v>757.72413441243</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="Y13" t="n">
-        <v>564.4843764226425</v>
+        <v>967.1285778917505</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
@@ -5290,40 +5290,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277031</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L15" t="n">
-        <v>709.4934589365146</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M15" t="n">
-        <v>1016.813592216476</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1346.676219880509</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>710.3120936331045</v>
+        <v>822.148054050878</v>
       </c>
       <c r="C16" t="n">
-        <v>710.3120936331045</v>
+        <v>822.148054050878</v>
       </c>
       <c r="D16" t="n">
-        <v>560.1954542207687</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909233</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U16" t="n">
-        <v>1164.055751909233</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="V16" t="n">
-        <v>931.1046727766346</v>
+        <v>822.148054050878</v>
       </c>
       <c r="W16" t="n">
-        <v>931.1046727766346</v>
+        <v>822.148054050878</v>
       </c>
       <c r="X16" t="n">
-        <v>931.1046727766346</v>
+        <v>822.148054050878</v>
       </c>
       <c r="Y16" t="n">
-        <v>710.3120936331045</v>
+        <v>822.148054050878</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555215</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>879.2482765610114</v>
+        <v>1028.139166941221</v>
       </c>
       <c r="C19" t="n">
-        <v>710.3120936331045</v>
+        <v>859.2029840133146</v>
       </c>
       <c r="D19" t="n">
-        <v>560.1954542207687</v>
+        <v>709.0863446009788</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>561.1732510185857</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>414.2833035206753</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>246.1079818404959</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1100.040855704541</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U19" t="n">
-        <v>1100.040855704541</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>1100.040855704541</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W19" t="n">
-        <v>1100.040855704541</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X19" t="n">
-        <v>1100.040855704541</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="Y19" t="n">
-        <v>879.2482765610114</v>
+        <v>1209.787631771461</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619856</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1503.408902298184</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881928</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655738</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="W22" t="n">
-        <v>665.6859735286132</v>
+        <v>985.7136853104482</v>
       </c>
       <c r="X22" t="n">
-        <v>437.6964226305959</v>
+        <v>985.7136853104482</v>
       </c>
       <c r="Y22" t="n">
-        <v>266.1532743881928</v>
+        <v>766.0937003109476</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6004,37 +6004,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636254</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899128</v>
@@ -6253,25 +6253,25 @@
         <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6311,22 +6311,22 @@
         <v>674.4285624571611</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636254</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395484</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6393,7 +6393,7 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6411,16 +6411,16 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598081</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387587</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011456</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952587</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
         <v>325.2066423583032</v>
@@ -6451,10 +6451,10 @@
         <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6463,7 +6463,7 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514088</v>
@@ -6545,25 +6545,25 @@
         <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L30" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636254</v>
       </c>
       <c r="M30" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1736.59991596447</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>527.8045051785811</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="C31" t="n">
-        <v>358.8683222506741</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D31" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="E31" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028589</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6651,22 +6651,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557903</v>
+        <v>1055.510870347908</v>
       </c>
       <c r="V31" t="n">
-        <v>1266.003805257089</v>
+        <v>1055.510870347908</v>
       </c>
       <c r="W31" t="n">
-        <v>976.5866352201285</v>
+        <v>766.0937003109476</v>
       </c>
       <c r="X31" t="n">
-        <v>748.5970843221112</v>
+        <v>766.0937003109476</v>
       </c>
       <c r="Y31" t="n">
-        <v>527.8045051785811</v>
+        <v>766.0937003109476</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6724,28 +6724,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="33">
@@ -6767,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J33" t="n">
-        <v>233.7852434110083</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>644.675512255521</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619851</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M34" t="n">
         <v>779.0639759471194</v>
@@ -6873,37 +6873,37 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980069</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585752</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="35">
@@ -6916,16 +6916,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6937,7 +6937,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514086</v>
@@ -6970,13 +6970,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7019,25 +7019,25 @@
         <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>2032.925401907738</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>2312.465467126435</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2517.487947908644</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
         <v>97.21709146028587</v>
@@ -7098,10 +7098,10 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M37" t="n">
         <v>779.0639759471194</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011507</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952638</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028587</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155897</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7174,13 +7174,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7256,16 +7256,16 @@
         <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L39" t="n">
         <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>1595.645765494011</v>
+        <v>1595.645765494012</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1925.508393158045</v>
       </c>
       <c r="O39" t="n">
         <v>2331.418122136705</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028587</v>
@@ -7335,10 +7335,10 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M40" t="n">
         <v>779.0639759471194</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598087</v>
+        <v>1472.826133832305</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1249.040718621811</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>959.9120798353694</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>705.2275916294825</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341675</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>841.8631140141292</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1646.27469227828</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>2315.73845358094</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2520.760934363149</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>696.5850465240062</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>696.5850465240062</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>546.4684071116704</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>398.5553135292773</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>398.5553135292773</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>230.3799918490979</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7572,10 +7572,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M43" t="n">
         <v>779.0639759471194</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U43" t="n">
-        <v>874.9271131227924</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V43" t="n">
-        <v>620.2426249169056</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="W43" t="n">
-        <v>330.825454879945</v>
+        <v>696.5850465240062</v>
       </c>
       <c r="X43" t="n">
-        <v>102.8359039819276</v>
+        <v>696.5850465240062</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>696.5850465240062</v>
       </c>
     </row>
     <row r="44">
@@ -7627,70 +7627,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7715,40 +7715,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>563.1598612984388</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C46" t="n">
-        <v>394.223678370532</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D46" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7809,13 +7809,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1483.007626207187</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1483.007626207187</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>1483.007626207187</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U46" t="n">
-        <v>1483.007626207187</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V46" t="n">
-        <v>1483.007626207187</v>
+        <v>1185.240178049213</v>
       </c>
       <c r="W46" t="n">
-        <v>1193.590456170226</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X46" t="n">
-        <v>965.6009052722087</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y46" t="n">
-        <v>744.8083261286786</v>
+        <v>447.040877970705</v>
       </c>
     </row>
   </sheetData>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229594</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9011,25 +9011,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>176.717654749846</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9418,13 +9418,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>321.798708171482</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>96.03744927814688</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>277.6717966208053</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208054</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>288.4091825776742</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208054</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>180.0237016735865</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208054</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>96.03744927814623</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10676,19 +10676,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q36" t="n">
-        <v>19.14409596997008</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720729</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928316</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10913,10 +10913,10 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>127.6461250100645</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>127.6461250100639</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,19 +11150,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q42" t="n">
-        <v>15.83804904622774</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>5.084754415748563</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23478,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>27.27729294220524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>21.51607498255532</v>
+        <v>111.5698324276587</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>1.511846891128215</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642671</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>24.58171033716516</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037875</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>48.75693659211572</v>
+        <v>1.160868202589199</v>
       </c>
     </row>
     <row r="23">
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>192.3581855871777</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338004</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,22 +24891,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>68.81356724907164</v>
       </c>
       <c r="V31" t="n">
-        <v>21.5543026760225</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>82.39383318338503</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>96.29904972659219</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338523</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>130.6844047393602</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338523</v>
+        <v>172.0915746252618</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25791,19 +25791,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>17.08255698261218</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>213.0220289556694</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>94.21479449658415</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -26082,7 +26082,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>51.56266414401773</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>886944.3223752768</v>
+        <v>886944.3223752769</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>886944.3223752769</v>
+        <v>886944.3223752768</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>886944.3223752769</v>
+        <v>886944.3223752771</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>886944.3223752768</v>
+        <v>886944.3223752772</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>886944.3223752769</v>
+        <v>886944.3223752768</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>886944.3223752769</v>
+        <v>886944.3223752768</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>886944.3223752768</v>
+        <v>886944.3223752771</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>886944.3223752768</v>
+        <v>886944.3223752767</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>886944.3223752769</v>
+        <v>886944.3223752768</v>
       </c>
     </row>
     <row r="16">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="C2" t="n">
         <v>513151.1061651768</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651774</v>
+        <v>513151.1061651773</v>
       </c>
       <c r="E2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.324672136</v>
       </c>
       <c r="F2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721361</v>
       </c>
       <c r="G2" t="n">
         <v>488786.324672136</v>
       </c>
       <c r="H2" t="n">
+        <v>488786.3246721358</v>
+      </c>
+      <c r="I2" t="n">
+        <v>488786.3246721358</v>
+      </c>
+      <c r="J2" t="n">
+        <v>488786.3246721358</v>
+      </c>
+      <c r="K2" t="n">
         <v>488786.3246721359</v>
       </c>
-      <c r="I2" t="n">
-        <v>488786.3246721359</v>
-      </c>
-      <c r="J2" t="n">
-        <v>488786.3246721361</v>
-      </c>
-      <c r="K2" t="n">
-        <v>488786.3246721361</v>
-      </c>
       <c r="L2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
       <c r="M2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
       <c r="N2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="O2" t="n">
         <v>488786.3246721359</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.651701151989983e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925932</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>147917.0487159208</v>
+      </c>
+      <c r="C4" t="n">
         <v>147917.0487159209</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
-      <c r="D4" t="n">
-        <v>147917.0487159209</v>
-      </c>
       <c r="E4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007481</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.73165600742</v>
       </c>
       <c r="K4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007481</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="M4" t="n">
         <v>7916.731656007483</v>
@@ -26456,10 +26456,10 @@
         <v>7916.731656007481</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.73165600748</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007481</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871667</v>
@@ -26499,7 +26499,7 @@
         <v>91987.32594871667</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871665</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-307592.8998286977</v>
+        <v>-307592.8998286979</v>
       </c>
       <c r="C6" t="n">
         <v>282374.9793858465</v>
       </c>
       <c r="D6" t="n">
-        <v>282374.9793858471</v>
+        <v>282374.979385847</v>
       </c>
       <c r="E6" t="n">
-        <v>-137252.3606692057</v>
+        <v>-136375.2285354566</v>
       </c>
       <c r="F6" t="n">
-        <v>387907.6758076901</v>
+        <v>388784.8079414398</v>
       </c>
       <c r="G6" t="n">
-        <v>387907.67580769</v>
+        <v>388784.8079414397</v>
       </c>
       <c r="H6" t="n">
-        <v>387907.6758076901</v>
+        <v>388784.8079414395</v>
       </c>
       <c r="I6" t="n">
-        <v>387907.6758076901</v>
+        <v>388784.8079414395</v>
       </c>
       <c r="J6" t="n">
-        <v>211484.4566150971</v>
+        <v>212361.5887488466</v>
       </c>
       <c r="K6" t="n">
-        <v>387907.6758076903</v>
+        <v>388784.8079414396</v>
       </c>
       <c r="L6" t="n">
-        <v>387907.6758076902</v>
+        <v>388784.8079414397</v>
       </c>
       <c r="M6" t="n">
-        <v>253106.660573853</v>
+        <v>253983.7927076025</v>
       </c>
       <c r="N6" t="n">
-        <v>387907.6758076901</v>
+        <v>388784.8079414395</v>
       </c>
       <c r="O6" t="n">
-        <v>387907.6758076901</v>
+        <v>388784.8079414396</v>
       </c>
       <c r="P6" t="n">
-        <v>387907.6758076901</v>
+        <v>388784.8079414396</v>
       </c>
     </row>
   </sheetData>
@@ -26740,46 +26740,46 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="D3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="E3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="J3" t="n">
+        <v>830.3824054541006</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541006</v>
+      </c>
+      <c r="L3" t="n">
         <v>830.3824054541005</v>
       </c>
-      <c r="K3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541004</v>
-      </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
     </row>
     <row r="4">
@@ -26801,16 +26801,16 @@
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253574</v>
@@ -26819,7 +26819,7 @@
         <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,19 +27381,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>158.7285995226327</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>82.02264908530589</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27438,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27545,19 +27545,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>122.4594567016854</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>82.85718120047569</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27590,13 +27590,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>247.9340427562851</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>190.7623767421584</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24.62049154535643</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27782,10 +27782,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,16 +27830,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>162.8303858730969</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>86.67058736014346</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>48.19472341080779</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>63.3731647155137</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28742,7 +28742,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>4.901797486430345e-12</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29006,7 +29006,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.278858831540371e-12</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -29295,7 +29295,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-1.392663762089796e-12</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29495,7 +29495,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>5.090328158985358e-12</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -29769,7 +29769,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29945,7 +29945,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>5.090328158985358e-12</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304438</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565517</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298628</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171318</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,37 +32238,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,43 +32548,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,43 +32785,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32946,16 +32946,16 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927188</v>
@@ -32964,19 +32964,19 @@
         <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U26" t="n">
         <v>0.2670576580354894</v>
@@ -33022,7 +33022,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
@@ -33031,19 +33031,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M27" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710957</v>
@@ -33052,13 +33052,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33116,19 +33116,19 @@
         <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336902</v>
@@ -33137,7 +33137,7 @@
         <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
         <v>34.18755300444946</v>
@@ -33183,40 +33183,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,7 +33259,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
@@ -33268,19 +33268,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710957</v>
@@ -33289,13 +33289,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
         <v>34.18755300444946</v>
@@ -33432,13 +33432,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647497</v>
@@ -33453,7 +33453,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33508,7 +33508,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
         <v>464.5362854813463</v>
@@ -33529,7 +33529,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
         <v>45.03122946298631</v>
@@ -33581,10 +33581,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
         <v>234.725964217132</v>
@@ -33593,7 +33593,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33605,13 +33605,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
         <v>34.18755300444946</v>
@@ -33669,13 +33669,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647497</v>
@@ -33690,7 +33690,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33745,7 +33745,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
         <v>464.5362854813463</v>
@@ -33766,7 +33766,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
         <v>45.03122946298631</v>
@@ -33818,10 +33818,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
         <v>234.725964217132</v>
@@ -33830,7 +33830,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33842,13 +33842,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
         <v>34.18755300444946</v>
@@ -33906,13 +33906,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647497</v>
@@ -33927,7 +33927,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33982,7 +33982,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N39" t="n">
         <v>464.5362854813463</v>
@@ -34003,7 +34003,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
         <v>45.03122946298631</v>
@@ -34055,10 +34055,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
         <v>234.725964217132</v>
@@ -34067,7 +34067,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34079,13 +34079,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
         <v>34.18755300444946</v>
@@ -34143,13 +34143,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647497</v>
@@ -34164,7 +34164,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34219,7 +34219,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
         <v>464.5362854813463</v>
@@ -34240,7 +34240,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
         <v>45.03122946298631</v>
@@ -34292,10 +34292,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
         <v>234.725964217132</v>
@@ -34304,7 +34304,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34316,13 +34316,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,10 +34359,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,37 +34371,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34477,7 +34477,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879391</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734255</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415662</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315245</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507405</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879391</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>425.9753597058702</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714617</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507405</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K18" t="n">
-        <v>384.9870895382559</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109119</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>137.9476282330536</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768298</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523302</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081121</v>
@@ -36615,10 +36615,10 @@
         <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,10 +36679,10 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>537.6668875336986</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980131</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523302</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36764,16 +36764,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187479</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>429.2814066296109</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523302</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
@@ -36998,19 +36998,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37080,19 +37080,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>137.9476282330529</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005179</v>
@@ -37159,16 +37159,16 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
@@ -37235,19 +37235,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520608</v>
       </c>
       <c r="P34" t="n">
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37317,19 +37317,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005179</v>
@@ -37396,19 +37396,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q36" t="n">
-        <v>107.1571287550442</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
@@ -37472,7 +37472,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056037</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415071</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37551,22 +37551,22 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221109</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>460.8406984080775</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>410.0098272511722</v>
       </c>
       <c r="P39" t="n">
         <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
@@ -37709,7 +37709,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056037</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37791,19 +37791,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560244</v>
@@ -37870,19 +37870,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.8510818313019</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
@@ -37946,7 +37946,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056037</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O45" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
